--- a/algoritmos/transacciones_ventas/proyecto.xlsx
+++ b/algoritmos/transacciones_ventas/proyecto.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -508,40 +508,6 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Jalapa</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5214</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Perrito</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>casa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1703</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Derick</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Barrio La Esperanza</t>
         </is>
       </c>
     </row>
@@ -607,16 +573,20 @@
           <t>Coca Cola</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>310</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>CocaColaCompany</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>5</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -631,7 +601,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -653,16 +623,20 @@
           <t>Monster Ultra White</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>391</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Monster Energy</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>18.5</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18.5</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -676,16 +650,20 @@
           <t>Red-Bull</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>450</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Red Bull</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>19</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -700,7 +678,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -724,10 +702,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -763,7 +741,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0265</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -772,171 +750,9 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3698</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3698</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0986</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3698</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0986</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1235</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5214</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1235</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0986</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>10</v>
       </c>
     </row>
